--- a/CsvToolTests/Files/Excel/simpleExport.xlsx
+++ b/CsvToolTests/Files/Excel/simpleExport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -80,17 +80,6 @@
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
 </x:styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B3" totalsRowShown="0">
-  <x:autoFilter ref="A1:B3"/>
-  <x:tableColumns count="2">
-    <x:tableColumn id="1" name="Id"/>
-    <x:tableColumn id="2" name="Age"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,18 +385,18 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="n">
+      <x:c r="B2" s="0">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="n">
+      <x:c r="B3" s="0">
         <x:v>8</x:v>
       </x:c>
     </x:row>
@@ -416,8 +405,6 @@
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
-  <x:tableParts count="1">
-    <x:tablePart r:id="rId5"/>
-  </x:tableParts>
+  <x:tableParts count="0"/>
 </x:worksheet>
 </file>